--- a/biology/Botanique/Jardin_botanique_de_la_faculté_des_sciences_de_l'université_métropolitaine_d'Osaka/Jardin_botanique_de_la_faculté_des_sciences_de_l'université_métropolitaine_d'Osaka.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_la_faculté_des_sciences_de_l'université_métropolitaine_d'Osaka/Jardin_botanique_de_la_faculté_des_sciences_de_l'université_métropolitaine_d'Osaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_la_facult%C3%A9_des_sciences_de_l%27universit%C3%A9_m%C3%A9tropolitaine_d%27Osaka</t>
+          <t>Jardin_botanique_de_la_faculté_des_sciences_de_l'université_métropolitaine_d'Osaka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique de la faculté des sciences de l'Université métropolitaine d'Osaka (大阪公立大学理学部附属植物園, Ōsaka Kouritsu Daigaku Rigakubu Fuzoku Shokubutsuen?, 26 hectares)  est un jardin botanique géré par l’Université métropolitaine d'Osaka.  Il est situé près de la gare Keihan-Kisaichi, Katano et est  ouvert au public. 
